--- a/docs/cda-logical-model/StructureDefinition-SC.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-SC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -748,42 +752,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="23.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.3125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="25.8046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.37890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="25.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -927,13 +931,13 @@
         <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -984,10 +988,10 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>73</v>
@@ -999,25 +1003,25 @@
         <v>71</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -1032,11 +1036,11 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1063,11 +1067,11 @@
         <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>71</v>
@@ -1085,10 +1089,10 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1105,20 +1109,20 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1133,11 +1137,11 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1188,10 +1192,10 @@
         <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
@@ -1208,23 +1212,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>71</v>
@@ -1236,11 +1240,11 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1267,11 +1271,11 @@
         <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>71</v>
@@ -1289,10 +1293,10 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1309,23 +1313,23 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1337,11 +1341,11 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1392,10 +1396,10 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
@@ -1412,23 +1416,23 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1440,11 +1444,11 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1471,11 +1475,11 @@
         <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>71</v>
@@ -1493,10 +1497,10 @@
         <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1513,20 +1517,20 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1541,11 +1545,11 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1596,10 +1600,10 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1616,20 +1620,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1644,11 +1648,11 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1657,7 +1661,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>71</v>
@@ -1699,10 +1703,10 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1719,10 +1723,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1730,7 +1734,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1745,11 +1749,11 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1758,7 +1762,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S10" t="s" s="2">
         <v>71</v>
@@ -1800,10 +1804,10 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1820,10 +1824,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1831,7 +1835,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1846,11 +1850,11 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1901,10 +1905,10 @@
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
@@ -1921,23 +1925,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
@@ -1949,11 +1953,11 @@
         <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2004,10 +2008,10 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2024,23 +2028,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>71</v>
@@ -2052,11 +2056,11 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2107,10 +2111,10 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2127,10 +2131,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2140,7 +2144,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2155,7 +2159,7 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2208,10 +2212,10 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2228,20 +2232,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2256,7 +2260,7 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2309,10 +2313,10 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2329,20 +2333,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2357,7 +2361,7 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2410,10 +2414,10 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2430,20 +2434,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2458,7 +2462,7 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2511,10 +2515,10 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2531,20 +2535,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2559,7 +2563,7 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2612,10 +2616,10 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-SC.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-SC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
